--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
+    <sheet name="6月" sheetId="2" r:id="rId2"/>
+    <sheet name="7月 " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +184,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表、统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>培训报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训报到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训报到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效培训：东山宾馆会议中心（6号线区庄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效培训:三寓宾馆会议中心4楼锦辉厅(6号线区庄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表、统计、接口整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得走报销流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成竞品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初稿，总体检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +411,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,7 +437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -679,8 +726,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,14 +1023,16 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -994,8 +1043,12 @@
         <v>13</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
     </row>
@@ -1007,8 +1060,12 @@
         <v>14</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
@@ -1020,8 +1077,12 @@
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>
@@ -1046,10 +1107,14 @@
         <v>10</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -1059,8 +1124,12 @@
         <v>11</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.375</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
     </row>
@@ -1213,4 +1282,911 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43252</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43253</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>43254</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>43256</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>43257</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43258</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>43259</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43260</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43261</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>43262</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>43263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43264</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43265</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>43267</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>43268</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>43269</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43270</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43271</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>43272</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>43273</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>43274</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>43275</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>43276</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>43277</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>43278</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>43279</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>43280</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>43281</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43283</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>43284</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43285</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>43286</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>43287</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43288</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43289</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43290</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43291</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>43292</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43294</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43295</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>43296</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>43297</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>43298</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>43299</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43300</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43301</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>43302</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>43303</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>43304</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>43305</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>43306</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>43307</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>43308</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>43309</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>43310</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>43311</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>43312</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="57">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,8 +726,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1049,7 +1049,9 @@
       <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,19 +220,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成初稿，总体检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交初稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下班前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初稿，总体检查，提交初稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +722,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1063,12 +1059,14 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1079,11 +1077,9 @@
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -224,11 +224,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下班前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成初稿，总体检查，提交初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看资料看看书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +722,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>53</v>
@@ -1077,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,7 +228,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看看资料看看书</t>
+    <t>资料收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧护理项目建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,6 +416,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,15 +731,15 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
@@ -1078,7 +1087,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1138,8 +1147,12 @@
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
@@ -1287,15 +1300,15 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1737,15 +1750,15 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1788,17 +1801,17 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43283</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1852,20 +1865,20 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>43288</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43289</v>
       </c>
@@ -1879,30 +1892,30 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43290</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43291</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -1943,70 +1956,70 @@
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>43295</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>43296</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43297</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43298</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43299</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -2034,31 +2047,31 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>43302</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>43303</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -2074,43 +2087,43 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>43305</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>43306</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>43307</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -2125,31 +2138,31 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>43309</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>43310</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="59">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,47 +196,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>绩效培训:三寓宾馆会议中心4楼锦辉厅(6号线区庄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表、统计、接口整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得走报销流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成竞品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初稿，总体检查，提交初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧护理项目建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理各厂商资料，整理各厂商功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>绩效培训：东山宾馆会议中心（6号线区庄）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绩效培训:三寓宾馆会议中心4楼锦辉厅(6号线区庄)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表、统计、接口整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记得走报销流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成竞品分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成初稿，总体检查，提交初稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料收集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>划水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧护理项目建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>36</v>
@@ -1049,10 +1053,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
@@ -1068,10 +1072,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1120,7 +1124,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1132,7 +1136,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="15">
         <v>0.375</v>
@@ -1148,12 +1152,14 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
@@ -1300,8 +1306,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1393,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E5" s="15">
         <v>0.375</v>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,13 +241,17 @@
   </si>
   <si>
     <t>绩效培训：东山宾馆会议中心（6号线区庄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go ahead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,7 +739,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1160,7 +1164,9 @@
       <c r="E23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1177,9 @@
         <v>13</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,14 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪到飞起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下班前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,13 +237,21 @@
   </si>
   <si>
     <t>go ahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理功能，确定要做哪些功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,8 +739,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,12 +784,8 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="9"/>
@@ -920,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -932,10 +928,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
@@ -951,13 +947,13 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -970,16 +966,16 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1017,10 +1013,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1036,16 +1032,16 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1057,10 +1053,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
@@ -1076,10 +1072,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
@@ -1095,7 +1091,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1123,12 +1119,12 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1140,7 +1136,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="15">
         <v>0.375</v>
@@ -1156,16 +1152,16 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="9"/>
     </row>
@@ -1178,10 +1174,14 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,9 @@
         <v>14</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>
@@ -1386,7 +1388,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1401,7 +1403,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="15">
         <v>0.375</v>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>整理功能，确定要做哪些功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,8 +743,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,8 +1199,12 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门聚餐/自我表扬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +747,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,10 +1219,14 @@
         <v>15</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,22 @@
   </si>
   <si>
     <t>部门聚餐/自我表扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先定大概方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期项目需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧护理项目否决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +763,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,11 +1277,21 @@
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>智慧护理项目否决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给UI讲解体检系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百强医院信息整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,10 +1309,14 @@
         <v>12</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
@@ -1314,7 +1326,9 @@
         <v>13</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>培训报到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绩效培训:三寓宾馆会议中心4楼锦辉厅(6号线区庄)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绩效培训：东山宾馆会议中心（6号线区庄）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>go ahead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +269,50 @@
   </si>
   <si>
     <t>百强医院信息整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧护理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理框架，出智慧护理功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧护理完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善移动查房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,9 +806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1100,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>34</v>
@@ -1085,10 +1121,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
@@ -1104,10 +1140,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
@@ -1123,7 +1159,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1156,7 +1192,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1168,7 +1204,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="15">
         <v>0.375</v>
@@ -1184,13 +1220,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>35</v>
@@ -1206,10 +1242,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1225,10 +1261,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>35</v>
@@ -1244,12 +1280,12 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1286,19 +1322,19 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1310,12 +1346,16 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G30" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1327,10 +1367,14 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1341,9 +1385,15 @@
         <v>14</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
   </sheetData>
@@ -1371,9 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,9 +1467,15 @@
         <v>15</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1443,9 +1499,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -1457,14 +1511,16 @@
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1475,9 +1531,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1488,9 +1548,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1514,9 +1578,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1526,8 +1594,12 @@
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
@@ -1552,8 +1624,12 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,19 +300,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HRP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完善移动查房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原型</t>
+    <t>原型完善、解读互联互通标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档、原型、脑图完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动护理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（李科、蔡科沟通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRP资料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能设计、页面流程、原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,8 +1450,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>18</v>
@@ -1453,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>0</v>
@@ -1565,7 +1593,9 @@
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9"/>
@@ -1594,11 +1624,9 @@
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1625,10 +1653,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1642,7 +1670,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="9"/>
@@ -1655,9 +1685,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1667,8 +1701,12 @@
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
@@ -1681,7 +1719,9 @@
         <v>15</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,14 @@
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插：科技项目申报；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +402,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,6 +537,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1450,8 +1467,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1773,7 +1790,9 @@
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
@@ -1786,7 +1805,9 @@
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档、原型、脑图完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动护理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HRP资料整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,11 +336,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插：科技项目申报；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科技报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插：科技项目申报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理第一版完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档、原型、脑图完成；移动查房第一版完成；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +852,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,17 +891,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>43221</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -1467,8 +1467,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>18</v>
@@ -1498,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>0</v>
@@ -1603,19 +1603,17 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>43258</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -1643,7 +1641,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1688,7 +1686,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1703,7 +1701,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -1719,10 +1717,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1737,7 +1735,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1770,17 +1768,17 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>43269</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -1791,7 +1789,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1805,8 +1803,8 @@
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
+      <c r="D21" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1820,9 +1818,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>文档、原型、脑图完成；移动查房第一版完成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理PC基础版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成护理PC平台基础版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,8 +1479,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1835,9 +1847,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1874,9 +1890,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1907,9 @@
         <v>12</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,10 @@
   </si>
   <si>
     <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查完善护理平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,8 +1483,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1922,7 +1926,9 @@
         <v>13</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -10,13 +10,14 @@
     <sheet name="5月" sheetId="1" r:id="rId1"/>
     <sheet name="6月" sheetId="2" r:id="rId2"/>
     <sheet name="7月 " sheetId="4" r:id="rId3"/>
+    <sheet name="8月" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +366,22 @@
   </si>
   <si>
     <t>检查完善护理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动查房2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动查房3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +569,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,8 +579,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3F3F3"/>
       <color rgb="FFECECEC"/>
-      <color rgb="FFF3F3F3"/>
       <color rgb="FFEEEEEE"/>
     </mruColors>
   </colors>
@@ -867,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1482,9 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1804,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="3"/>
@@ -1940,8 +1957,12 @@
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="9"/>
@@ -1954,9 +1975,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1988,9 +2013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,6 +2071,465 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>43284</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43285</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>43286</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>43287</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43288</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43289</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43290</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>43291</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>43292</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43294</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>43295</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>43296</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>43297</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>43298</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>43299</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43300</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43301</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>43302</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>43303</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>43304</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>43305</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>43306</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>43307</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>43308</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>43309</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>43310</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>43311</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>43312</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43313</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>43314</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2054,10 +2538,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>43284</v>
+        <v>43315</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2066,37 +2550,37 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>43285</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="6">
+        <v>43316</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>43286</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="6">
+        <v>43317</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>43287</v>
+        <v>43318</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2104,38 +2588,38 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>43288</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>43289</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43319</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>43320</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>43290</v>
+        <v>43321</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2145,10 +2629,10 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>43291</v>
+        <v>43322</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2157,37 +2641,37 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>43292</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="6">
+        <v>43323</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>43293</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="6">
+        <v>43324</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>43294</v>
+        <v>43325</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2195,38 +2679,38 @@
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>43295</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>43296</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43326</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>43327</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>43297</v>
+        <v>43328</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2236,10 +2720,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>43298</v>
+        <v>43329</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2248,37 +2732,37 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>43299</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="6">
+        <v>43330</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>43300</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="6">
+        <v>43331</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>43301</v>
+        <v>43332</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2286,38 +2770,38 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>43302</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>43303</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>43333</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>43334</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>43304</v>
+        <v>43335</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2327,10 +2811,10 @@
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>43305</v>
+        <v>43336</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2339,37 +2823,37 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>43306</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="6">
+        <v>43337</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>43307</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="6">
+        <v>43338</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>43308</v>
+        <v>43339</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2377,38 +2861,38 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>43309</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>43310</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>43340</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>43341</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>43311</v>
+        <v>43342</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2418,10 +2902,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,18 @@
   </si>
   <si>
     <t>移动查房3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页角色区分（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型完善，文档修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2013,9 +2025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2074,7 +2086,9 @@
       <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="9"/>
@@ -2087,9 +2101,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2100,7 +2118,9 @@
         <v>13</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给UI讲解体检系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百强医院信息整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,18 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善移动查房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原型完善、解读互联互通标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动护理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（李科、蔡科沟通）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>护理第一版完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文档、原型、脑图完成；移动查房第一版完成；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,11 +373,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页角色区分（待定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原型完善，文档修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给小璇讲解体检系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱执行界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动护理2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理1.0完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理平台1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动护理1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动查房1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插：产品培训、实习生工作安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +917,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,13 +1459,13 @@
         <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1457,10 +1477,10 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>35</v>
@@ -1476,10 +1496,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>35</v>
@@ -1512,8 +1532,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1534,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>18</v>
@@ -1543,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>0</v>
@@ -1558,10 +1578,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -1602,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="3" t="s">
@@ -1622,7 +1642,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1639,7 +1659,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -1669,7 +1689,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -1686,7 +1706,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1713,10 +1733,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1731,7 +1751,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1746,7 +1766,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -1762,10 +1782,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1780,7 +1800,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1834,7 +1854,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1849,7 +1869,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1864,7 +1884,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1879,9 +1899,11 @@
       <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -1924,7 +1946,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1941,7 +1963,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1956,7 +1978,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1970,10 +1992,10 @@
         <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1988,7 +2010,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -2027,7 +2049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2084,10 +2106,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2102,7 +2124,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -2117,9 +2139,11 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2133,9 +2157,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2146,7 +2174,9 @@
         <v>15</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
@@ -2185,7 +2215,9 @@
         <v>11</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
@@ -2494,7 +2526,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F354BABA-4A49-4763-AC49-025FC7EE40A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医嘱执行界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动护理2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,14 +410,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插：产品培训、实习生工作安排</t>
+    <t>医嘱执行功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱执行界面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理任务、体征采集、护理评估、健康教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插：培训演讲稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插：培训试讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装打印机，打印发票，提交电脑申请表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -703,6 +736,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -738,6 +788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -921,18 +988,18 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -955,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43221</v>
       </c>
@@ -968,7 +1035,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43222</v>
       </c>
@@ -989,7 +1056,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43223</v>
       </c>
@@ -1010,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43224</v>
       </c>
@@ -1031,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43225</v>
       </c>
@@ -1044,7 +1111,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43226</v>
       </c>
@@ -1057,7 +1124,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43227</v>
       </c>
@@ -1076,7 +1143,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43228</v>
       </c>
@@ -1097,7 +1164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43229</v>
       </c>
@@ -1116,7 +1183,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43230</v>
       </c>
@@ -1135,7 +1202,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43231</v>
       </c>
@@ -1156,7 +1223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43232</v>
       </c>
@@ -1169,7 +1236,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43233</v>
       </c>
@@ -1182,7 +1249,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43234</v>
       </c>
@@ -1201,7 +1268,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43235</v>
       </c>
@@ -1222,7 +1289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43236</v>
       </c>
@@ -1241,7 +1308,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43237</v>
       </c>
@@ -1260,7 +1327,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43238</v>
       </c>
@@ -1275,7 +1342,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43239</v>
       </c>
@@ -1288,7 +1355,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43240</v>
       </c>
@@ -1305,7 +1372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43241</v>
       </c>
@@ -1322,7 +1389,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43242</v>
       </c>
@@ -1343,7 +1410,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43243</v>
       </c>
@@ -1362,7 +1429,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43244</v>
       </c>
@@ -1381,7 +1448,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43245</v>
       </c>
@@ -1398,7 +1465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43246</v>
       </c>
@@ -1411,7 +1478,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43247</v>
       </c>
@@ -1424,7 +1491,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43248</v>
       </c>
@@ -1447,7 +1514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43249</v>
       </c>
@@ -1468,7 +1535,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43250</v>
       </c>
@@ -1487,7 +1554,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43251</v>
       </c>
@@ -1509,16 +1576,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21 F28 F14 F7:F8 F2:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21 F28 F14 F7:F8 F2:F5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"完成,未完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F32 F15:F19 F22:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F32 F15:F19 F22:F26" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"完成,待续,未完成, ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"完成,待续,未完成,计划否决"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1528,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1536,17 +1603,17 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>43252</v>
       </c>
@@ -1588,7 +1655,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43253</v>
       </c>
@@ -1601,7 +1668,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43254</v>
       </c>
@@ -1614,7 +1681,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43255</v>
       </c>
@@ -1633,7 +1700,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43256</v>
       </c>
@@ -1650,7 +1717,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43257</v>
       </c>
@@ -1667,7 +1734,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43258</v>
       </c>
@@ -1680,7 +1747,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43259</v>
       </c>
@@ -1697,7 +1764,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43260</v>
       </c>
@@ -1712,7 +1779,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43261</v>
       </c>
@@ -1725,7 +1792,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43262</v>
       </c>
@@ -1733,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>72</v>
@@ -1742,7 +1809,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43263</v>
       </c>
@@ -1757,7 +1824,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43264</v>
       </c>
@@ -1774,7 +1841,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43265</v>
       </c>
@@ -1782,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>76</v>
@@ -1791,7 +1858,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43266</v>
       </c>
@@ -1806,7 +1873,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43267</v>
       </c>
@@ -1819,7 +1886,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43268</v>
       </c>
@@ -1832,7 +1899,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43269</v>
       </c>
@@ -1845,7 +1912,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43270</v>
       </c>
@@ -1860,7 +1927,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43271</v>
       </c>
@@ -1875,7 +1942,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43272</v>
       </c>
@@ -1884,7 +1951,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1892,7 +1959,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43273</v>
       </c>
@@ -1900,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>82</v>
@@ -1911,7 +1978,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43274</v>
       </c>
@@ -1924,7 +1991,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43275</v>
       </c>
@@ -1937,7 +2004,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43276</v>
       </c>
@@ -1954,7 +2021,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43277</v>
       </c>
@@ -1969,7 +2036,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43278</v>
       </c>
@@ -1984,7 +2051,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43279</v>
       </c>
@@ -2001,7 +2068,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43280</v>
       </c>
@@ -2018,7 +2085,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43281</v>
       </c>
@@ -2034,7 +2101,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2044,25 +2111,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43282</v>
       </c>
@@ -2098,7 +2165,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -2115,7 +2182,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -2132,7 +2199,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -2140,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>93</v>
@@ -2149,7 +2216,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -2166,7 +2233,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -2175,13 +2242,13 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43288</v>
       </c>
@@ -2194,7 +2261,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43289</v>
       </c>
@@ -2207,22 +2274,22 @@
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -2230,12 +2297,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -2243,25 +2314,35 @@
         <v>13</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -2269,12 +2350,14 @@
         <v>15</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43295</v>
       </c>
@@ -2287,7 +2370,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43296</v>
       </c>
@@ -2300,7 +2383,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -2308,25 +2391,29 @@
         <v>11</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43299</v>
       </c>
@@ -2334,12 +2421,14 @@
         <v>13</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -2352,7 +2441,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -2365,7 +2454,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43302</v>
       </c>
@@ -2378,7 +2467,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43303</v>
       </c>
@@ -2391,7 +2480,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -2404,7 +2493,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -2417,7 +2506,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -2430,7 +2519,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -2443,7 +2532,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -2456,7 +2545,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43309</v>
       </c>
@@ -2469,7 +2558,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43310</v>
       </c>
@@ -2482,7 +2571,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -2495,7 +2584,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -2511,7 +2600,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2521,25 +2610,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>43313</v>
       </c>
@@ -2575,7 +2664,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43314</v>
       </c>
@@ -2588,7 +2677,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43315</v>
       </c>
@@ -2601,7 +2690,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43316</v>
       </c>
@@ -2614,7 +2703,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43317</v>
       </c>
@@ -2627,7 +2716,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43318</v>
       </c>
@@ -2640,7 +2729,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43319</v>
       </c>
@@ -2653,7 +2742,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43320</v>
       </c>
@@ -2666,7 +2755,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43321</v>
       </c>
@@ -2679,7 +2768,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43322</v>
       </c>
@@ -2692,7 +2781,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43323</v>
       </c>
@@ -2705,7 +2794,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43324</v>
       </c>
@@ -2718,7 +2807,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43325</v>
       </c>
@@ -2731,7 +2820,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43326</v>
       </c>
@@ -2744,7 +2833,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43327</v>
       </c>
@@ -2757,7 +2846,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43328</v>
       </c>
@@ -2770,7 +2859,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43329</v>
       </c>
@@ -2783,7 +2872,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43330</v>
       </c>
@@ -2796,7 +2885,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43331</v>
       </c>
@@ -2809,7 +2898,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43332</v>
       </c>
@@ -2822,7 +2911,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43333</v>
       </c>
@@ -2835,7 +2924,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43334</v>
       </c>
@@ -2848,7 +2937,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43335</v>
       </c>
@@ -2861,7 +2950,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43336</v>
       </c>
@@ -2874,7 +2963,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43337</v>
       </c>
@@ -2887,7 +2976,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43338</v>
       </c>
@@ -2900,7 +2989,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43339</v>
       </c>
@@ -2913,7 +3002,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43340</v>
       </c>
@@ -2926,7 +3015,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43341</v>
       </c>
@@ -2939,7 +3028,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43342</v>
       </c>
@@ -2952,7 +3041,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43343</v>
       </c>
@@ -2968,7 +3057,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F354BABA-4A49-4763-AC49-025FC7EE40A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6EB8C467-733C-4671-BE56-7094D1BAD5CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,7 +446,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装打印机，打印发票，提交电脑申请表</t>
+    <t>培训演讲；ppt修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt修改；提交电脑申请表；开单界面设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,7 +2119,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2408,7 +2412,9 @@
       <c r="C18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6EB8C467-733C-4671-BE56-7094D1BAD5CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89B3F75D-E3C1-4DCB-9227-2C9F06C21C01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="113">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,11 +446,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>培训演讲；ppt修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppt修改；提交电脑申请表；开单界面设计</t>
+    <t>提交电脑申请表；开单界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药功能设计；ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训演讲；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,7 +2127,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2413,7 +2421,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2428,7 +2436,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2442,7 +2450,9 @@
         <v>14</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
@@ -2455,7 +2465,9 @@
         <v>15</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89B3F75D-E3C1-4DCB-9227-2C9F06C21C01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8D9595-C8E7-4726-B4C1-36DA6FE6346D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="114">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,11 +454,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>草药功能设计；ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>培训演讲；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药功能设计；ppt；交班管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动护理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,8 +2131,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2425,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2464,9 +2468,11 @@
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8D9595-C8E7-4726-B4C1-36DA6FE6346D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18EED8CD-C9FE-49FE-8A99-5B9058E1CE17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="7月 " sheetId="4" r:id="rId3"/>
     <sheet name="8月" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,10 @@
   </si>
   <si>
     <t>移动护理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文档、原型完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,8 +2135,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2516,9 @@
         <v>11</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18EED8CD-C9FE-49FE-8A99-5B9058E1CE17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C18DB779-5CDF-4D6F-BA28-46E7E614364E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="117">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>需求文档、原型完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作提醒消息、患者呼叫消息、交接班消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2135,8 +2143,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2528,9 @@
         <v>114</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2531,7 +2541,9 @@
         <v>12</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>
@@ -2544,7 +2556,9 @@
         <v>13</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C18DB779-5CDF-4D6F-BA28-46E7E614364E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDF7C703-71F4-4EDC-9573-3DEC29E16DCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>工作提醒消息、患者呼叫消息、交接班消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温单答疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理文书、护理记录单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,8 +2155,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2572,9 @@
         <v>116</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,9 +2598,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2597,9 +2615,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2644,9 @@
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,22 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDF7C703-71F4-4EDC-9573-3DEC29E16DCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BFD001C-233B-493E-A3AF-7AAB946EBC97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
     <sheet name="6月" sheetId="2" r:id="rId2"/>
     <sheet name="7月 " sheetId="4" r:id="rId3"/>
     <sheet name="8月" sheetId="5" r:id="rId4"/>
+    <sheet name="9月" sheetId="6" r:id="rId5"/>
+    <sheet name="10月" sheetId="8" r:id="rId6"/>
+    <sheet name="11月" sheetId="9" r:id="rId7"/>
+    <sheet name="12月" sheetId="10" r:id="rId8"/>
+    <sheet name="1月" sheetId="14" r:id="rId9"/>
+    <sheet name="2月" sheetId="15" r:id="rId10"/>
+    <sheet name="3月" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="126">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插：培训演讲稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插：培训试讲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +490,34 @@
   </si>
   <si>
     <t>固定资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训演讲稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理二级功能；图表；库房管理二级界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片修改； 二级界面；文档撰写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端盘点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +581,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -577,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -641,11 +686,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,6 +747,24 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,13 +1113,13 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
     <col min="2" max="2" width="4.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
     <col min="4" max="4" width="42.08984375" customWidth="1"/>
@@ -1634,18 +1723,1231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G31"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735436FF-A59E-432F-9E45-24BD5876A2E2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43498</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43499</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43500</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43501</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43502</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43503</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43504</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43505</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>43506</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43507</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43508</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43509</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43510</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43511</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43512</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43513</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43514</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43515</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43516</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43517</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43518</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43519</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43520</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43521</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43522</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43523</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43524</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29" xr:uid="{B73A1894-4F36-4EE4-A7B5-62F10573BBAA}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246240BA-F324-4DE0-BEFC-04ECBDB9178B}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43525</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43526</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43527</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43528</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43529</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43530</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43531</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43532</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43533</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43535</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43536</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43537</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43538</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43539</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43540</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43541</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43542</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43543</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43544</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43545</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43546</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43547</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43548</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43549</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43550</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43551</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43552</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43553</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43554</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>43555</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="29"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69" xr:uid="{B90CBFA5-6279-4209-A25C-3CA09FA4C492}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
     <col min="2" max="2" width="5.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
     <col min="4" max="4" width="42.08984375" customWidth="1"/>
@@ -2152,11 +3454,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2322,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2371,10 +3676,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -2391,7 +3696,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2432,7 +3737,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2446,10 +3751,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2464,7 +3769,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2479,7 +3784,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2493,10 +3798,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2537,7 +3842,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2554,7 +3859,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2569,7 +3874,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -2599,7 +3904,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -2616,7 +3921,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
@@ -2645,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2679,16 +3984,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="5.36328125" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="42.08984375" customWidth="1"/>
@@ -2701,7 +4009,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>2</v>
@@ -2726,7 +4034,9 @@
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2792,9 +4102,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,9 +4119,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2817,7 +4135,9 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3132,4 +4452,3126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D7F04-6180-4627-9A73-B0059AE33F03}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43345</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43346</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43347</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43348</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43349</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43350</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43351</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43352</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43353</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43354</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43355</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43356</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43357</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43358</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43359</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43360</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43361</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43362</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43363</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43364</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43365</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43366</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43367</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43368</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43369</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43370</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43371</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43372</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43373</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{D356A32D-107F-4809-B096-91D192272005}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0439509-34BE-4214-9D42-8131D011937A}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43375</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43376</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43377</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43378</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>43379</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43380</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43381</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43382</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43383</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43384</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43385</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>43386</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>43387</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43390</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43392</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43393</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>43394</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43395</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>43396</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43397</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43398</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43399</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43400</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43401</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43402</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>43403</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>43404</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{7D6161CD-7602-4798-8073-3B5A812077D0}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADADF155-95EC-40D4-A595-2C659B0C3394}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43406</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43407</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43408</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43409</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43410</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43411</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43412</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43413</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43414</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43415</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43416</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43417</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43418</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43419</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43420</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43421</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>43422</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43423</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43424</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43425</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43426</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>43427</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43428</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>43429</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43430</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43431</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43432</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43433</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>43434</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{26133445-00A1-4F19-AFD7-B3A6507A90DD}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA40B74-1F20-498C-AEEE-0BB601228EEA}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G98"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43436</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43437</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43438</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43439</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43440</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43441</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43442</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43443</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43444</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43445</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43446</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43447</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43448</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43449</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43450</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43451</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43452</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43453</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43454</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43455</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43456</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43457</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43458</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43459</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43460</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43461</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43462</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43463</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43464</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>43465</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>43466</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>43467</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>43468</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>43469</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>43470</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>43471</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>43472</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>43473</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>43474</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43477</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>43478</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>43479</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>43480</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>43481</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>43482</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>43483</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>43484</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>43485</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>43486</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>43487</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>43488</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>43489</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>43490</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>43491</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>43492</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>43493</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>43494</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>43495</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>43496</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>43498</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>43499</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>43500</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>43501</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>43502</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>43503</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>43504</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>43505</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>43506</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>43507</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>43508</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>43509</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>43510</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>43511</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>43512</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>43513</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>43514</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>43515</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>43516</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>43517</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>43518</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>43519</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>43520</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>43521</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>43522</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>43523</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>43524</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>43525</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>43526</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>43527</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>43528</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>43529</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>43530</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>43531</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F98" xr:uid="{46BDE2ED-CE2A-4538-8ADF-1515219D342B}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4372F1-BB06-439D-816C-795747D806D3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43467</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43468</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43469</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43470</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43471</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43472</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43473</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43474</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43477</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43478</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43479</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43480</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43481</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43482</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43483</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43484</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43485</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43486</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43487</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43488</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43489</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43490</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43491</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43492</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43493</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43494</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>43495</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>43496</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{6FC95D43-ED66-4FDA-B5AC-A73D2CEC6EC6}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BFD001C-233B-493E-A3AF-7AAB946EBC97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D39772CD-B66D-44DC-B9C3-039B9E68B3CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="128">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,7 +517,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动端盘点</t>
+    <t>分类；需求背景；设备、本系统关系；条形码、效益；图书；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加图书管理功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加‘借阅历史’</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3990,8 +3998,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3999,7 +4007,7 @@
     <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="5.36328125" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" customWidth="1"/>
     <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
@@ -4135,10 +4143,10 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
@@ -4164,9 +4172,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4203,9 +4215,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D39772CD-B66D-44DC-B9C3-039B9E68B3CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7DDF6C1-0C11-4612-8E4B-42B4DCFD2A4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="132">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,22 @@
   </si>
   <si>
     <t>增加‘借阅历史’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加采购功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加采购验收功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3468,7 +3484,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3998,8 +4014,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4310,9 +4326,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4336,9 +4356,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4349,9 +4373,13 @@
         <v>14</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4362,7 +4390,9 @@
         <v>15</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7DDF6C1-0C11-4612-8E4B-42B4DCFD2A4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CDD684E-4FC9-417E-851C-BE9DD697DD46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>增加采购验收功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库、入库审核；退货、退货审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库、出库审核；调拨、调拨审核；折旧方式修改、增值、削减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3483,8 +3495,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4014,8 +4026,8 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4431,9 +4443,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4444,9 +4460,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4456,7 +4476,9 @@
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CDD684E-4FC9-417E-851C-BE9DD697DD46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D507321-4F2F-4130-820A-30DCB619C448}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="137">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,14 @@
   </si>
   <si>
     <t>机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交租房小票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房租小票again</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4025,9 +4033,9 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4482,7 +4490,9 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -4495,7 +4505,9 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -4529,8 +4541,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D507321-4F2F-4130-820A-30DCB619C448}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506DF02-7462-4501-8D3F-2A64F92120B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="2月" sheetId="15" r:id="rId10"/>
     <sheet name="3月" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="140">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,15 +553,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机器学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交租房小票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交房租小票again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向转诊文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品介绍、功能清单、用户操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳江区位项目申报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《阳江区位》——分级诊疗部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,8 +651,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +696,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,6 +861,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2985,7 +3056,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3503,8 +3574,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4034,493 +4105,493 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="60.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="60.81640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="32"/>
+    <col min="6" max="6" width="7.7265625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33">
         <v>43313</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33">
         <v>43314</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33">
         <v>43315</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
         <v>43316</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
         <v>43317</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33">
         <v>43318</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33">
         <v>43319</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33">
         <v>43320</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33">
         <v>43321</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33">
         <v>43322</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
         <v>43323</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
         <v>43324</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
         <v>43325</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33">
         <v>43326</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33">
         <v>43327</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33">
         <v>43328</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33">
         <v>43329</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
         <v>43330</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
         <v>43331</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33">
         <v>43332</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
         <v>43333</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33">
         <v>43334</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33">
         <v>43335</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33">
         <v>43336</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
         <v>43337</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
         <v>43338</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33">
         <v>43339</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33">
         <v>43340</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33">
         <v>43341</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33">
+        <v>43342</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>43342</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33">
         <v>43343</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4541,432 +4612,442 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="8" style="32" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="32"/>
+    <col min="6" max="6" width="8.453125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37">
         <v>43344</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
         <v>43345</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33">
         <v>43346</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33">
         <v>43347</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33">
         <v>43348</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="C6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33">
         <v>43349</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33">
         <v>43350</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
         <v>43351</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
         <v>43352</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33">
         <v>43353</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33">
         <v>43354</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33">
         <v>43355</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
         <v>43356</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33">
         <v>43357</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
         <v>43358</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
         <v>43359</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33">
         <v>43360</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33">
         <v>43361</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33">
         <v>43362</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33">
         <v>43363</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
         <v>43364</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
         <v>43365</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
         <v>43366</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33">
         <v>43367</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33">
         <v>43368</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33">
         <v>43369</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33">
         <v>43370</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33">
         <v>43371</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
         <v>43372</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
         <v>43373</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4976,6 +5057,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4987,7 +5069,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5000,7 +5082,7 @@
     <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506DF02-7462-4501-8D3F-2A64F92120B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFABAE31-2A80-45BC-AAB7-686EAB6CEB82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="153">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,11 +569,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阳江区位项目申报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《阳江区位》——分级诊疗部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《阳江区位（新）》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳江区位项目申报书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳江区位标书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《血库系统》原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、大数据中心建设方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,6 +633,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,6 +935,20 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1846,7 +1915,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1860,26 +1929,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2334,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2279,26 +2348,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3056,7 +3125,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3575,7 +3644,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4106,7 +4175,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4612,13 +4681,14 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" style="32" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="32" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="14.453125" style="32" customWidth="1"/>
     <col min="4" max="4" width="45.90625" style="32" customWidth="1"/>
@@ -4630,16 +4700,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>29</v>
@@ -4648,11 +4718,11 @@
         <v>30</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37">
+      <c r="A2" s="41">
         <v>43344</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4665,7 +4735,7 @@
       <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="41">
         <v>43345</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -4678,7 +4748,7 @@
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
+      <c r="A4" s="42">
         <v>43346</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -4691,7 +4761,7 @@
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
+      <c r="A5" s="42">
         <v>43347</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -4704,7 +4774,7 @@
       <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
+      <c r="A6" s="42">
         <v>43348</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -4721,7 +4791,7 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
+      <c r="A7" s="42">
         <v>43349</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -4734,7 +4804,7 @@
       <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
+      <c r="A8" s="42">
         <v>43350</v>
       </c>
       <c r="B8" s="34" t="s">
@@ -4747,7 +4817,7 @@
       <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37">
+      <c r="A9" s="41">
         <v>43351</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -4760,7 +4830,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37">
+      <c r="A10" s="41">
         <v>43352</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -4773,7 +4843,7 @@
       <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
+      <c r="A11" s="42">
         <v>43353</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -4786,22 +4856,24 @@
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33">
+      <c r="A12" s="42">
         <v>43354</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33">
+      <c r="A13" s="42">
         <v>43355</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -4814,7 +4886,7 @@
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="42">
         <v>43356</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -4827,7 +4899,7 @@
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33">
+      <c r="A15" s="42">
         <v>43357</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -4840,7 +4912,7 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37">
+      <c r="A16" s="41">
         <v>43358</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -4853,7 +4925,7 @@
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37">
+      <c r="A17" s="41">
         <v>43359</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -4866,7 +4938,7 @@
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
+      <c r="A18" s="42">
         <v>43360</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -4879,7 +4951,7 @@
       <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33">
+      <c r="A19" s="42">
         <v>43361</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -4892,7 +4964,7 @@
       <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33">
+      <c r="A20" s="42">
         <v>43362</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -4900,27 +4972,29 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+      <c r="A21" s="42">
         <v>43363</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="35" t="s">
+        <v>139</v>
+      </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
+      <c r="A22" s="42">
         <v>43364</v>
       </c>
       <c r="B22" s="34" t="s">
@@ -4933,7 +5007,7 @@
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
+      <c r="A23" s="41">
         <v>43365</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -4946,7 +5020,7 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37">
+      <c r="A24" s="41">
         <v>43366</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -4959,7 +5033,7 @@
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33">
+      <c r="A25" s="42">
         <v>43367</v>
       </c>
       <c r="B25" s="34" t="s">
@@ -4969,23 +5043,27 @@
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="36" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33">
+      <c r="A26" s="42">
         <v>43368</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33">
+      <c r="A27" s="42">
         <v>43369</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -4998,7 +5076,7 @@
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33">
+      <c r="A28" s="42">
         <v>43370</v>
       </c>
       <c r="B28" s="34" t="s">
@@ -5011,7 +5089,7 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33">
+      <c r="A29" s="42">
         <v>43371</v>
       </c>
       <c r="B29" s="34" t="s">
@@ -5024,7 +5102,7 @@
       <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37">
+      <c r="A30" s="41">
         <v>43372</v>
       </c>
       <c r="B30" s="38" t="s">
@@ -5034,10 +5112,12 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="40" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37">
+      <c r="A31" s="41">
         <v>43373</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -5068,445 +5148,457 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="45.90625" customWidth="1"/>
     <col min="6" max="6" width="8.453125" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>43375</v>
+      </c>
+      <c r="B3" s="46">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>43376</v>
+      </c>
+      <c r="B4" s="46">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>43377</v>
+      </c>
+      <c r="B5" s="46">
+        <v>4</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <v>43378</v>
+      </c>
+      <c r="B6" s="46">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>43379</v>
+      </c>
+      <c r="B7" s="43">
+        <v>6</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>43380</v>
+      </c>
+      <c r="B8" s="43">
+        <v>7</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>43381</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>43382</v>
+      </c>
+      <c r="B10" s="46">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>43374</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>43375</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>43376</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>43377</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>43378</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>43379</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>43380</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>43381</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>43382</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="49">
         <v>43383</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="46">
+        <v>3</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="49">
         <v>43384</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="46">
+        <v>4</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="49">
         <v>43385</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="46">
+        <v>5</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="50">
         <v>43386</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="43">
+        <v>6</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="50">
         <v>43387</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="43">
+        <v>7</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="49">
         <v>43388</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="46">
+        <v>1</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="49">
         <v>43389</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="46">
+        <v>2</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="49">
         <v>43390</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="46">
+        <v>3</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="49">
         <v>43391</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="46">
+        <v>4</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="49">
         <v>43392</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="46">
+        <v>5</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="50">
         <v>43393</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="43">
+        <v>6</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="50">
         <v>43394</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="43">
+        <v>7</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="49">
         <v>43395</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="46">
+        <v>1</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="49">
         <v>43396</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="46">
+        <v>2</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="49">
         <v>43397</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="46">
+        <v>3</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="49">
         <v>43398</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="46">
+        <v>4</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="49">
         <v>43399</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="46">
+        <v>5</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="50">
         <v>43400</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
+      <c r="B28" s="43">
+        <v>6</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="50">
         <v>43401</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="43">
+        <v>7</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="49">
         <v>43402</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="46">
+        <v>1</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="49">
         <v>43403</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="46">
+        <v>2</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="49">
         <v>43404</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="46">
+        <v>3</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5527,7 +5619,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5541,26 +5633,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5972,7 +6064,7 @@
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5986,26 +6078,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7288,7 +7380,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7302,26 +7394,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
+      <c r="G1" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2018工作日志.xlsx
+++ b/2018工作日志.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFABAE31-2A80-45BC-AAB7-686EAB6CEB82}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09C900-89ED-4689-966D-3C728A7F295E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="2月" sheetId="15" r:id="rId10"/>
     <sheet name="3月" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="164">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,50 @@
   </si>
   <si>
     <t>2、大数据中心建设方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《变化》系统梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助人力编写招聘信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助查询系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳江项目启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康信息服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排分工；随访系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭医生签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭医生签约-居民端完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个居民能不能和多个医生签约？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +773,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +813,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,6 +1005,18 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4681,8 +4749,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -5148,8 +5216,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5387,7 +5455,9 @@
         <v>1</v>
       </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="47" t="s">
+        <v>153</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="48"/>
@@ -5441,7 +5511,9 @@
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5504,7 +5576,9 @@
         <v>3</v>
       </c>
       <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>154</v>
+      </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="48"/>
@@ -5516,7 +5590,9 @@
       <c r="B26" s="46">
         <v>4</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
@@ -5571,7 +5647,9 @@
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5581,7 +5659,9 @@
       <c r="B31" s="46">
         <v>2</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -5594,10 +5674,16 @@
       <c r="B32" s="46">
         <v>3</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>159</v>
+      </c>
       <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="F32" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="G32" s="48"/>
     </row>
   </sheetData>
@@ -5608,6 +5694,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5618,8 +5705,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5629,10 +5716,10 @@
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="45.90625" customWidth="1"/>
     <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>145</v>
       </c>
@@ -5656,394 +5743,406 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="55">
         <v>43405</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="55">
         <v>43406</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="51">
         <v>43407</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="51">
         <v>43408</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="55">
         <v>43409</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="55">
         <v>43410</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="55">
         <v>43411</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="55">
         <v>43412</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="55">
         <v>43413</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="51">
         <v>43414</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="51">
         <v>43415</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="55">
         <v>43416</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="55">
         <v>43417</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="55">
         <v>43418</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="55">
         <v>43419</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="55">
         <v>43420</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="51">
         <v>43421</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="51">
         <v>43422</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="55">
         <v>43423</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="55">
         <v>43424</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="55">
         <v>43425</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="55">
         <v>43426</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="55">
         <v>43427</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="51">
         <v>43428</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="51">
         <v>43429</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="55">
         <v>43430</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="55">
         <v>43431</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="55">
         <v>43432</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="55">
         <v>43433</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="55">
         <v>43434</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6053,6 +6152,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
